--- a/data-excel/Tranh-so-hoa-2.xlsx
+++ b/data-excel/Tranh-so-hoa-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Tên</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Đường dẫn</t>
   </si>
   <si>
-    <t>colorNumber</t>
-  </si>
-  <si>
     <t>Số màu</t>
   </si>
   <si>
@@ -106,6 +103,33 @@
   </si>
   <si>
     <t>KM011</t>
+  </si>
+  <si>
+    <t>color_number</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>shoppe_code</t>
+  </si>
+  <si>
+    <t>kami_code</t>
+  </si>
+  <si>
+    <t>Nổi bật</t>
+  </si>
+  <si>
+    <t>Thứ tự ưu tiên</t>
+  </si>
+  <si>
+    <t>Mã Kami</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -163,12 +187,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,10 +493,12 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" hidden="1">
+    <row r="1" spans="1:24" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -480,16 +512,28 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -504,23 +548,29 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -543,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/chua/C_"&amp;B3&amp;".jpg"</f>
@@ -553,13 +603,19 @@
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>175000</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
+      <c r="I3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -571,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/chua/C_"&amp;B4&amp;".jpg"</f>
@@ -581,6 +637,12 @@
       <c r="F4" s="1"/>
       <c r="G4">
         <v>175000</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -851,43 +913,43 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data-excel/Tranh-so-hoa-2.xlsx
+++ b/data-excel/Tranh-so-hoa-2.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,9 +493,11 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1">

--- a/data-excel/Tranh-so-hoa-2.xlsx
+++ b/data-excel/Tranh-so-hoa-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Tên</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>KM084</t>
   </si>
 </sst>
 </file>
@@ -481,9 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -645,6 +646,9 @@
       </c>
       <c r="J4" s="6">
         <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24">

--- a/data-excel/Tranh-so-hoa-2.xlsx
+++ b/data-excel/Tranh-so-hoa-2.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chua" sheetId="1" r:id="rId1"/>
-    <sheet name="mater" sheetId="4" r:id="rId2"/>
+    <sheet name="bep" sheetId="5" r:id="rId2"/>
+    <sheet name="mater" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Tên</t>
   </si>
@@ -133,6 +134,21 @@
   </si>
   <si>
     <t>KM084</t>
+  </si>
+  <si>
+    <t>Bếp và món ăn</t>
+  </si>
+  <si>
+    <t>KM097</t>
+  </si>
+  <si>
+    <t>KM098</t>
+  </si>
+  <si>
+    <t>KM099</t>
+  </si>
+  <si>
+    <t>KM100</t>
   </si>
 </sst>
 </file>
@@ -484,6 +500,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X48"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"/img/chua/C_"&amp;B3&amp;".jpg"</f>
+        <v>/img/chua/C_1.jpg</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>175000</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>"/img/chua/C_"&amp;B4&amp;".jpg"</f>
+        <v>/img/chua/C_2.jpg</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <v>175000</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>mater!$B$2:$B$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F42</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X48"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -596,15 +1036,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>"/img/chua/C_"&amp;B3&amp;".jpg"</f>
-        <v>/img/chua/C_1.jpg</v>
-      </c>
-      <c r="E3" s="1">
-        <v>25</v>
-      </c>
+        <f>"/img/bep/B_"&amp;B3&amp;".jpg"</f>
+        <v>/img/bep/B_1.jpg</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
@@ -617,8 +1055,8 @@
       <c r="J3" s="6">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>25</v>
+      <c r="L3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -630,14 +1068,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>"/img/chua/C_"&amp;B4&amp;".jpg"</f>
-        <v>/img/chua/C_2.jpg</v>
+        <f t="shared" ref="D4:D6" si="0">"/img/bep/B_"&amp;B4&amp;".jpg"</f>
+        <v>/img/bep/B_2.jpg</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G4">
         <v>175000</v>
       </c>
@@ -648,24 +1088,72 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B6" si="1">ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/img/bep/B_3.jpg</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>175000</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>/img/bep/B_4.jpg</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>175000</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1"/>
@@ -904,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L7"/>
   <sheetViews>
